--- a/database/industries/zeraat/zegoldasht/product/yearly_seprated.xlsx
+++ b/database/industries/zeraat/zegoldasht/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\zegoldasht\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5DB1F1-C110-45D0-8571-C474F4F1C89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C02B2E3-FD6E-4FD6-AD21-663DB2A4DA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -655,12 +655,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -670,7 +670,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -704,7 +704,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -728,7 +728,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -738,7 +738,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -770,7 +770,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -806,7 +806,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
@@ -876,7 +876,7 @@
         <v>46458</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>20</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>22</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>25</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>46458</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1022,7 +1022,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1032,7 +1032,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1042,7 +1042,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>27</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1074,7 +1074,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>1716097</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>14</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>129319</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>63245</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>18</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>1908661</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>30</v>
       </c>
@@ -1192,7 +1192,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1226,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>22</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>23</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>25</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>26</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>1908661</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1328,7 +1328,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1338,7 +1338,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1348,7 +1348,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>32</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1380,7 +1380,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>33</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>38374262</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>14</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>74406789</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>16</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1474,7 +1474,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1484,7 +1484,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1494,7 +1494,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>37</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1526,7 +1526,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>38</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>11</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>-1308169</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>14</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>-138775</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>16</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>39</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>-1446944</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
         <v>40</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>41</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>42</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
         <v>43</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>23</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
         <v>25</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>26</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>-1446944</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1790,7 +1790,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1800,7 +1800,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>44</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1832,7 +1832,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>45</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>11</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>407928</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>14</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>-9456</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>63245</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>46</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>461717</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="16" t="s">
         <v>47</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>48</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
         <v>49</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>50</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
         <v>26</v>
       </c>

--- a/database/industries/zeraat/zegoldasht/product/yearly_seprated.xlsx
+++ b/database/industries/zeraat/zegoldasht/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C02B2E3-FD6E-4FD6-AD21-663DB2A4DA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD05B30-5F25-4D10-8932-CC8FABDFD0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -655,12 +655,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -670,7 +670,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -704,7 +704,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -728,7 +728,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -738,7 +738,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -770,7 +770,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -806,7 +806,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
@@ -876,7 +876,7 @@
         <v>46458</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
         <v>20</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
         <v>22</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>25</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>46458</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1022,7 +1022,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1032,7 +1032,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1042,7 +1042,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>27</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1074,7 +1074,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>1716097</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>14</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>129319</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>63245</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>18</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>1908661</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>30</v>
       </c>
@@ -1192,7 +1192,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1226,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>22</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>23</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
         <v>25</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>26</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>1908661</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1328,7 +1328,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1338,7 +1338,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1348,7 +1348,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>32</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1380,7 +1380,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>33</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>38374262</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>14</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>74406789</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>16</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1474,7 +1474,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1484,7 +1484,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1494,7 +1494,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>37</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1526,7 +1526,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>38</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>11</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>-1308169</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>14</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>-138775</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>16</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>39</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>-1446944</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
         <v>40</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="18" t="s">
         <v>41</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>42</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="18" t="s">
         <v>43</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>23</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
         <v>25</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>26</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>-1446944</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1790,7 +1790,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1800,7 +1800,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>44</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1832,7 +1832,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>45</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>11</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>407928</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>14</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>-9456</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>63245</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>46</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>461717</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="16" t="s">
         <v>47</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>48</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="16" t="s">
         <v>49</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
         <v>50</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>26</v>
       </c>
